--- a/Excel Files/Scenario 1/Expected Data/TC196/Expected Customer Order.xlsx
+++ b/Excel Files/Scenario 1/Expected Data/TC196/Expected Customer Order.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="112">
   <si>
     <t>#{Label_Title}</t>
   </si>
@@ -314,7 +314,7 @@
     <t>Islamic Republic of Pakistan,PK-CUS</t>
   </si>
   <si>
-    <t>cCB101-2311002</t>
+    <t>cDB104-2311002</t>
   </si>
   <si>
     <t>Firm</t>
@@ -326,7 +326,7 @@
     <t>Weekly</t>
   </si>
   <si>
-    <t>06 Nov 2023 - 12 Nov 2023</t>
+    <t>27 Nov 2023 - 03 Dec 2023</t>
   </si>
   <si>
     <t>By Invoice Date</t>
@@ -344,6 +344,39 @@
     <t>Truck</t>
   </si>
   <si>
+    <t>s1004</t>
+  </si>
+  <si>
+    <t>PK-CUS-s1-004</t>
+  </si>
+  <si>
+    <t>b00004</t>
+  </si>
+  <si>
+    <t>sDB104-2311002</t>
+  </si>
+  <si>
+    <t>MY-ELA-SUP</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>Processing</t>
+  </si>
+  <si>
+    <t>s1003</t>
+  </si>
+  <si>
+    <t>PK-CUS-s1-003</t>
+  </si>
+  <si>
+    <t>b00003</t>
+  </si>
+  <si>
     <t>s1006</t>
   </si>
   <si>
@@ -351,39 +384,6 @@
   </si>
   <si>
     <t>b00006</t>
-  </si>
-  <si>
-    <t>sCB101-2311002</t>
-  </si>
-  <si>
-    <t>MY-ELA-SUP</t>
-  </si>
-  <si>
-    <t>PC</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>s1003</t>
-  </si>
-  <si>
-    <t>PK-CUS-s1-003</t>
-  </si>
-  <si>
-    <t>b00003</t>
-  </si>
-  <si>
-    <t>s1004</t>
-  </si>
-  <si>
-    <t>PK-CUS-s1-004</t>
-  </si>
-  <si>
-    <t>b00004</t>
   </si>
   <si>
     <t>AUTHORIZATION:</t>
@@ -9521,7 +9521,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="18" max="16384" style="19" width="12.625" collapsed="true"/>
+    <col min="19" max="16384" style="19" width="12.625" collapsed="true"/>
+    <col min="18" max="18" style="19" width="18.75" collapsed="true" customWidth="true"/>
     <col min="17" max="17" style="19" width="18.75" collapsed="true" customWidth="true"/>
     <col min="16" max="16" style="19" width="18.75" collapsed="true" customWidth="true"/>
     <col min="1" max="1" customWidth="true" style="19" width="3.75" collapsed="true"/>
@@ -9909,7 +9910,7 @@
         <v>57</v>
       </c>
       <c r="C18" s="29" t="n">
-        <v>45231.0</v>
+        <v>45250.0</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -10021,6 +10022,9 @@
         <v>76</v>
       </c>
       <c r="Q21" s="1"/>
+      <c r="R21" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="22" spans="2:19">
       <c r="B22" s="35"/>
@@ -10039,6 +10043,7 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
     </row>
     <row r="23" spans="2:19">
       <c r="B23" s="35"/>
@@ -10055,13 +10060,16 @@
       <c r="M23" s="34"/>
       <c r="N23" s="1"/>
       <c r="O23" s="2" t="n">
-        <v>45239.0</v>
+        <v>45252.0</v>
       </c>
       <c r="P23" s="2" t="n">
+        <v>45280.0</v>
+      </c>
+      <c r="Q23" s="2" t="n">
+        <v>45311.0</v>
+      </c>
+      <c r="R23" s="2" t="n">
         <v>45261.0</v>
-      </c>
-      <c r="Q23" s="2" t="n">
-        <v>45292.0</v>
       </c>
     </row>
     <row r="24" spans="2:19">
@@ -10105,13 +10113,14 @@
         <v>103</v>
       </c>
       <c r="O24" s="42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P24" s="42" t="n">
         <v>660.0</v>
       </c>
-      <c r="P24" s="42" t="n">
-        <v>600.0</v>
-      </c>
-      <c r="Q24" s="42" t="n">
-        <v>60.0</v>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42" t="n">
+        <v>660.0</v>
       </c>
     </row>
     <row r="25">
@@ -10155,10 +10164,13 @@
         <v>103</v>
       </c>
       <c r="O25" s="42" t="n">
-        <v>660.0</v>
+        <v>0.0</v>
       </c>
       <c r="P25" s="42"/>
       <c r="Q25" s="42" t="n">
+        <v>660.0</v>
+      </c>
+      <c r="R25" s="42" t="n">
         <v>660.0</v>
       </c>
     </row>
@@ -10203,20 +10215,25 @@
         <v>103</v>
       </c>
       <c r="O26" s="42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P26" s="42" t="n">
+        <v>600.0</v>
+      </c>
+      <c r="Q26" s="42" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="R26" s="42" t="n">
         <v>660.0</v>
       </c>
-      <c r="P26" s="42" t="n">
-        <v>660.0</v>
-      </c>
-      <c r="Q26" s="42"/>
     </row>
     <row r="29">
-      <c r="O29" s="41" t="s">
+      <c r="P29" s="41" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="30">
-      <c r="O30" s="41" t="s">
+      <c r="P30" s="41" t="s">
         <v>111</v>
       </c>
     </row>
@@ -10240,6 +10257,7 @@
     <mergeCell ref="N21:N23"/>
     <mergeCell ref="O21:O22"/>
     <mergeCell ref="P21:Q22"/>
+    <mergeCell ref="R21:R22"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
